--- a/Hardware/bike_alarm/bike_alarm_materials.xlsx
+++ b/Hardware/bike_alarm/bike_alarm_materials.xlsx
@@ -199,9 +199,9 @@
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="10.4" customWidth="1"/>
-    <col min="3" max="3" width="28.6" customWidth="1"/>
+    <col min="3" max="3" width="33.800000000000004" customWidth="1"/>
     <col min="4" max="4" width="31.200000000000003" customWidth="1"/>
-    <col min="5" max="5" width="40.300000000000004" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="23.400000000000002" customWidth="1"/>
     <col min="7" max="7" width="11.700000000000001" customWidth="1"/>
     <col min="8" max="8" width="11.700000000000001" customWidth="1"/>
@@ -270,22 +270,22 @@
       </c>
       <c t="inlineStr" r="C2">
         <is>
-          <t>1801-TSM2306CXRFGCT-ND</t>
+          <t>A106055CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D2">
         <is>
-          <t>TSM2306CX RFG</t>
+          <t>CRG0805F10R</t>
         </is>
       </c>
       <c t="inlineStr" r="E2">
         <is>
-          <t>MOSFET N-CHANNEL 30V 3.5A SOT23</t>
+          <t>RES SMD 10 OHM 1% 1/8W 0805</t>
         </is>
       </c>
       <c t="inlineStr" r="F2">
         <is>
-          <t>Q1</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="G2" s="65">
@@ -295,10 +295,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I2">
-        <v>0.63000</v>
+        <v>0.10000</v>
       </c>
       <c r="J2" s="66">
-        <v>3.15</v>
+        <v>0.50</v>
       </c>
     </row>
     <row r="3">
@@ -310,22 +310,22 @@
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t>A106055CT-ND</t>
+          <t>A119894CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D3">
         <is>
-          <t>CRG0805F10R</t>
+          <t>RN73C2A1K0BTD</t>
         </is>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t>RES SMD 10 OHM 1% 1/8W 0805</t>
+          <t>RES SMD 1K OHM 0.1% 1/10W 0805</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t>R1</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="G3" s="65">
@@ -335,10 +335,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I3">
-        <v>0.10000</v>
+        <v>0.78000</v>
       </c>
       <c r="J3" s="66">
-        <v>0.50</v>
+        <v>3.90</v>
       </c>
     </row>
     <row r="4">
@@ -350,22 +350,22 @@
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t>A119894CT-ND</t>
+          <t>609-3504-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t>RN73C2A1K0BTD</t>
+          <t>68000-403HLF</t>
         </is>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t>RES SMD 1K OHM 0.1% 1/10W 0805</t>
+          <t>CONN HEADER VERT 3POS 2.54MM</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t>R2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="G4" s="65">
@@ -375,10 +375,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I4">
-        <v>0.78000</v>
+        <v>0.18000</v>
       </c>
       <c r="J4" s="66">
-        <v>3.90</v>
+        <v>0.90</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t>609-3504-ND</t>
+          <t>490-7709-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t>68000-403HLF</t>
+          <t>7BB-12-9</t>
         </is>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t>CONN HEADER VERT 3POS 2.54MM</t>
+          <t>BUZZER ELEMENT STD 9KHZ 12MM</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t>J1</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="G5" s="65">
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I5">
-        <v>0.18000</v>
+        <v>0.30000</v>
       </c>
       <c r="J5" s="66">
-        <v>0.90</v>
+        <v>1.50</v>
       </c>
     </row>
     <row r="6">
@@ -430,22 +430,22 @@
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t>490-7709-ND</t>
+          <t>3757-PJA3404_R1_00001CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t>7BB-12-9</t>
+          <t>PJA3404_R1_00001</t>
         </is>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t>BUZZER ELEMENT STD 9KHZ 12MM</t>
+          <t>SOT-23, MOSFET</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t>Y1</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="G6" s="65">
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I6">
-        <v>0.30000</v>
+        <v>0.38000</v>
       </c>
       <c r="J6" s="66">
-        <v>1.50</v>
+        <v>1.90</v>
       </c>
     </row>
   </sheetData>
